--- a/sensor_pos.xlsx
+++ b/sensor_pos.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,42 +394,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>126.541130065918</v>
+        <v>-47.17576217651367</v>
       </c>
       <c r="B2">
-        <v>229.3358917236328</v>
+        <v>-5.20164155960083</v>
       </c>
       <c r="C2">
-        <v>7.960655212402344</v>
+        <v>19.53321075439453</v>
       </c>
       <c r="D2">
-        <v>5.815057375002652E-05</v>
+        <v>5.731841883971356E-05</v>
       </c>
       <c r="E2">
-        <v>-7.674407005310059</v>
+        <v>-6.14206075668335</v>
       </c>
       <c r="F2">
-        <v>152.6246185302734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>126.541130065918</v>
-      </c>
-      <c r="B3">
-        <v>229.3358917236328</v>
-      </c>
-      <c r="C3">
-        <v>7.960655212402344</v>
-      </c>
-      <c r="D3">
-        <v>4.316752892918885E-05</v>
-      </c>
-      <c r="E3">
-        <v>-18.31359481811523</v>
-      </c>
-      <c r="F3">
-        <v>74.78458404541016</v>
+        <v>-92.03047943115234</v>
       </c>
     </row>
   </sheetData>

--- a/sensor_pos.xlsx
+++ b/sensor_pos.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,26 @@
         <v>-92.03047943115234</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>-40.08478546142578</v>
+      </c>
+      <c r="B3">
+        <v>-55.33632278442383</v>
+      </c>
+      <c r="C3">
+        <v>21.0407543182373</v>
+      </c>
+      <c r="D3">
+        <v>7.335847476497293E-05</v>
+      </c>
+      <c r="E3">
+        <v>-39.81347274780273</v>
+      </c>
+      <c r="F3">
+        <v>-163.1525115966797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
